--- a/صيدليات دكتور مصطفي طلعت_2026-01-02_21-00.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-02_21-00.xlsx
@@ -80,6 +80,9 @@
     <t>BETASERC 16MG 60 TAB</t>
   </si>
   <si>
+    <t>CANDALKAN 8MG 14 TAB</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -110,6 +113,9 @@
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
+    <t>CONCOR COR 2.5MG 30 TABLETS</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -131,6 +137,9 @@
     <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
   </si>
   <si>
+    <t>DEXAFLOX EYE DROPS 5 ML</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE INAD PHARMA 3 AMP</t>
   </si>
   <si>
@@ -209,6 +218,9 @@
     <t>IS IS بقدونس كرفس</t>
   </si>
   <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
   </si>
   <si>
     <t>PENDULINE كرلي كريم</t>
+  </si>
+  <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
     <t>RANI-F 20MG 6 SACHETS</t>
@@ -1227,17 +1242,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1245,7 +1260,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1253,17 +1268,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1279,17 +1294,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>258</v>
+        <v>96</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1297,7 +1312,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1305,17 +1320,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1337,11 +1352,11 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>118</v>
+        <v>248</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1357,17 +1372,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>43.329999999999998</v>
+        <v>118</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1383,17 +1398,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>22</v>
+        <v>43.329999999999998</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1409,17 +1424,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1435,17 +1450,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1453,7 +1468,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1461,13 +1476,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
@@ -1479,7 +1494,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1487,17 +1502,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1505,7 +1520,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1513,17 +1528,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1531,7 +1546,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1539,17 +1554,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1557,7 +1572,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1565,13 +1580,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
@@ -1583,7 +1598,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1591,17 +1606,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1609,7 +1624,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1617,17 +1632,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1635,7 +1650,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1643,17 +1658,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>57.600000000000001</v>
+        <v>13</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
-        <v>0.5</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1661,7 +1676,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1669,17 +1684,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1695,17 +1710,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1721,17 +1736,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>52</v>
+        <v>57.600000000000001</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>0.67000000000000004</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1739,7 +1754,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1747,17 +1762,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1765,7 +1780,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1773,17 +1788,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>0.67000000000000004</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1791,7 +1806,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1799,17 +1814,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>1</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1825,17 +1840,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1851,17 +1866,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>0.5</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1877,17 +1892,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>110.22</v>
+        <v>45</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
-        <v>0.34000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1903,17 +1918,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
-        <v>0.17000000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1921,7 +1936,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1929,17 +1944,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>1475</v>
+        <v>55</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1947,7 +1962,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1955,17 +1970,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>34</v>
+        <v>110.22</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>2</v>
+        <v>0.34000000000000002</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1973,7 +1988,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1981,17 +1996,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2013,11 +2028,11 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>53.759999999999998</v>
+        <v>1475</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2033,17 +2048,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2059,13 +2074,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
@@ -2085,17 +2100,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>12</v>
+        <v>53.759999999999998</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2117,7 +2132,7 @@
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
@@ -2137,13 +2152,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
@@ -2163,17 +2178,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2189,17 +2204,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2207,7 +2222,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2215,13 +2230,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
@@ -2233,7 +2248,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2247,11 +2262,11 @@
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2259,7 +2274,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2273,7 +2288,7 @@
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
@@ -2285,7 +2300,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2293,17 +2308,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2325,7 +2340,7 @@
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
@@ -2345,17 +2360,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>0.17000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2363,7 +2378,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2371,17 +2386,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>7.0499999999999998</v>
+        <v>89</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>0.050000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2389,7 +2404,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2397,17 +2412,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>221.16</v>
+        <v>51</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2415,7 +2430,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2429,11 +2444,11 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2441,7 +2456,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2449,13 +2464,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>160.55000000000001</v>
+        <v>24</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
@@ -2467,7 +2482,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2475,17 +2490,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2493,7 +2508,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2501,17 +2516,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>192</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
-        <v>1</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2519,7 +2534,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2527,17 +2542,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>20</v>
+        <v>221.16</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2545,7 +2560,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2553,17 +2568,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>115.2</v>
+        <v>58</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2571,7 +2586,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2585,11 +2600,11 @@
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>28.710000000000001</v>
+        <v>160.55000000000001</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2597,7 +2612,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2605,17 +2620,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2631,13 +2646,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
@@ -2657,13 +2672,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
@@ -2683,13 +2698,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>26</v>
+        <v>115.2</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
@@ -2701,7 +2716,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2709,17 +2724,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>5</v>
+        <v>28.710000000000001</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2727,7 +2742,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2735,17 +2750,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2753,7 +2768,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2761,13 +2776,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>56</v>
+        <v>250</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
@@ -2779,7 +2794,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2787,13 +2802,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>40.5</v>
+        <v>18</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
@@ -2805,7 +2820,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2813,13 +2828,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
@@ -2831,7 +2846,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2839,17 +2854,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2857,7 +2872,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2865,13 +2880,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
@@ -2883,7 +2898,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2891,17 +2906,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2909,7 +2924,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2917,17 +2932,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>18</v>
+        <v>40.5</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
-        <v>9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2935,7 +2950,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2949,7 +2964,7 @@
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
@@ -2961,7 +2976,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2969,7 +2984,7 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
@@ -2987,7 +3002,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2995,17 +3010,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3013,7 +3028,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3021,7 +3036,7 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
@@ -3031,7 +3046,7 @@
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3039,7 +3054,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3047,17 +3062,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3065,7 +3080,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3073,13 +3088,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
@@ -3091,7 +3106,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3099,17 +3114,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3117,7 +3132,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3125,17 +3140,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3143,7 +3158,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3151,51 +3166,181 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" ht="25.5" customHeight="1">
-      <c r="K89" s="11">
-        <v>6568.5799999999999</v>
-      </c>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" ht="24.75" customHeight="1">
+      <c r="A89" s="6">
+        <v>86</v>
+      </c>
+      <c t="s" r="B89" s="7">
+        <v>120</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c t="s" r="H89" s="8">
         <v>121</v>
       </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c t="s" r="F90" s="13">
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="9">
+        <v>20</v>
+      </c>
+      <c r="M89" s="9"/>
+      <c r="N89" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" ht="25.5" customHeight="1">
+      <c r="A90" s="6">
+        <v>87</v>
+      </c>
+      <c t="s" r="B90" s="7">
         <v>122</v>
       </c>
-      <c r="G90" s="13"/>
-      <c r="H90" s="14"/>
-      <c t="s" r="I90" s="15">
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c t="s" r="H90" s="8">
+        <v>36</v>
+      </c>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="9">
+        <v>25</v>
+      </c>
+      <c r="M90" s="9"/>
+      <c r="N90" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" ht="24.75" customHeight="1">
+      <c r="A91" s="6">
+        <v>88</v>
+      </c>
+      <c t="s" r="B91" s="7">
         <v>123</v>
       </c>
-      <c r="J90" s="15"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c t="s" r="H91" s="8">
+        <v>113</v>
+      </c>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="9">
+        <v>45</v>
+      </c>
+      <c r="M91" s="9"/>
+      <c r="N91" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="6">
+        <v>89</v>
+      </c>
+      <c t="s" r="B92" s="7">
+        <v>124</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c t="s" r="H92" s="8">
+        <v>113</v>
+      </c>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="9">
+        <v>20</v>
+      </c>
+      <c r="M92" s="9"/>
+      <c r="N92" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" ht="25.5" customHeight="1">
+      <c r="A93" s="6">
+        <v>90</v>
+      </c>
+      <c t="s" r="B93" s="7">
+        <v>125</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c t="s" r="H93" s="8">
+        <v>113</v>
+      </c>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="9">
+        <v>8</v>
+      </c>
+      <c r="M93" s="9"/>
+      <c r="N93" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="K94" s="11">
+        <v>6772.5799999999999</v>
+      </c>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="12">
+        <v>126</v>
+      </c>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c t="s" r="F95" s="13">
+        <v>127</v>
+      </c>
+      <c r="G95" s="13"/>
+      <c r="H95" s="14"/>
+      <c t="s" r="I95" s="15">
+        <v>128</v>
+      </c>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="266">
+  <mergeCells count="281">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3458,10 +3603,25 @@
     <mergeCell ref="B88:G88"/>
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="I90:N90"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="I95:N95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
